--- a/MAX_POWER.xlsx
+++ b/MAX_POWER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents_JP\Arduino\ESP32_RC_star_motor_PWM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0037EB-7BE7-4CD8-9C23-1755714FD95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD04D09-7E69-43F4-8A2B-E256ED750AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{085C712B-3A60-4E0F-99C1-F18DF0886F58}"/>
   </bookViews>
@@ -218,7 +218,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.5</c:v>
@@ -233,10 +233,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-330</c:v>
+                  <c:v>-230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,16 +988,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1322,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB66AEE1-4006-4630-B1A7-F3E0F409364C}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="C1">
-        <v>1880</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1348,11 +1348,11 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <f>1850 -$C$1</f>
-        <v>-30</v>
+        <f>1780 -$C$1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B4">
         <f>1550 -$C$1</f>
-        <v>-330</v>
+        <v>-230</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1369,84 +1369,84 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>1880</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <f>$C$1 + 500*A17-2080</f>
-        <v>1900</v>
+        <f>$C$1 + 200*A17-800</f>
+        <v>1780</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4.1500000000000004</v>
+        <v>3.95</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18:B31" si="0">$C$1 + 500*A18-2080</f>
-        <v>1875</v>
+        <f t="shared" ref="B18:B27" si="0">$C$1 + 200*A18-800</f>
+        <v>1770</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>1850</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>1825</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>1775</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>1750</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>1725</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
@@ -1455,56 +1455,20 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>1675</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>3.65</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>3.6</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>3.55</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>3.5</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>1550</v>
+        <v>1680</v>
       </c>
     </row>
   </sheetData>
